--- a/Code/Results/Cases/Case_4_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009554084498176</v>
+        <v>1.033566086006686</v>
       </c>
       <c r="D2">
-        <v>1.028251186334497</v>
+        <v>1.041284775085484</v>
       </c>
       <c r="E2">
-        <v>1.017666522025238</v>
+        <v>1.037209081715803</v>
       </c>
       <c r="F2">
-        <v>1.028832755925665</v>
+        <v>1.04844955719123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049646799911078</v>
+        <v>1.039348246348588</v>
       </c>
       <c r="J2">
-        <v>1.031452741943504</v>
+        <v>1.03869011018239</v>
       </c>
       <c r="K2">
-        <v>1.039330482631114</v>
+        <v>1.044064724237527</v>
       </c>
       <c r="L2">
-        <v>1.028885100735676</v>
+        <v>1.040000619992905</v>
       </c>
       <c r="M2">
-        <v>1.039904503389714</v>
+        <v>1.051209370383304</v>
       </c>
       <c r="N2">
-        <v>1.014321705002129</v>
+        <v>1.016864039476882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013526348837513</v>
+        <v>1.034406165869343</v>
       </c>
       <c r="D3">
-        <v>1.03127518960614</v>
+        <v>1.041946689113928</v>
       </c>
       <c r="E3">
-        <v>1.021147161683481</v>
+        <v>1.037997028747212</v>
       </c>
       <c r="F3">
-        <v>1.032542910477506</v>
+        <v>1.049291378171593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050950914200924</v>
+        <v>1.039564980280528</v>
       </c>
       <c r="J3">
-        <v>1.033654942906065</v>
+        <v>1.039173511798313</v>
       </c>
       <c r="K3">
-        <v>1.041522946063761</v>
+        <v>1.044537625248489</v>
       </c>
       <c r="L3">
-        <v>1.031516425957759</v>
+        <v>1.040598385274516</v>
       </c>
       <c r="M3">
-        <v>1.042775665782876</v>
+        <v>1.05186316195899</v>
       </c>
       <c r="N3">
-        <v>1.015060907502441</v>
+        <v>1.017025386728734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01604853279941</v>
+        <v>1.034950295680202</v>
       </c>
       <c r="D4">
-        <v>1.033197807642207</v>
+        <v>1.042375425894446</v>
       </c>
       <c r="E4">
-        <v>1.023362357594523</v>
+        <v>1.038507759910976</v>
       </c>
       <c r="F4">
-        <v>1.034903915447497</v>
+        <v>1.049837006658326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051768977778568</v>
+        <v>1.039704127733229</v>
       </c>
       <c r="J4">
-        <v>1.035050437647814</v>
+        <v>1.039486187120999</v>
       </c>
       <c r="K4">
-        <v>1.042911417572064</v>
+        <v>1.044843373994666</v>
       </c>
       <c r="L4">
-        <v>1.033186764811331</v>
+        <v>1.040985399239814</v>
       </c>
       <c r="M4">
-        <v>1.044598569539916</v>
+        <v>1.052286475353216</v>
       </c>
       <c r="N4">
-        <v>1.015529228371864</v>
+        <v>1.017129715324971</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017097694177751</v>
+        <v>1.03517917604336</v>
       </c>
       <c r="D5">
-        <v>1.03399813272461</v>
+        <v>1.042555769047492</v>
       </c>
       <c r="E5">
-        <v>1.024285031000945</v>
+        <v>1.038722679397158</v>
       </c>
       <c r="F5">
-        <v>1.035887259795396</v>
+        <v>1.050066605824337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052106839857116</v>
+        <v>1.039762362655128</v>
       </c>
       <c r="J5">
-        <v>1.035630229616919</v>
+        <v>1.039617606398579</v>
       </c>
       <c r="K5">
-        <v>1.043488080175672</v>
+        <v>1.04497184968291</v>
       </c>
       <c r="L5">
-        <v>1.033881452045383</v>
+        <v>1.041148151102138</v>
       </c>
       <c r="M5">
-        <v>1.045356783316836</v>
+        <v>1.052464498539729</v>
       </c>
       <c r="N5">
-        <v>1.015723777603444</v>
+        <v>1.017173556935251</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017273208436522</v>
+        <v>1.035217613535415</v>
       </c>
       <c r="D6">
-        <v>1.034132051339052</v>
+        <v>1.04258605539994</v>
       </c>
       <c r="E6">
-        <v>1.024439455426879</v>
+        <v>1.038758777475903</v>
       </c>
       <c r="F6">
-        <v>1.036051834921129</v>
+        <v>1.050105169202333</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052163216927766</v>
+        <v>1.03977212512898</v>
       </c>
       <c r="J6">
-        <v>1.03572718130922</v>
+        <v>1.039639670512551</v>
       </c>
       <c r="K6">
-        <v>1.043584495957746</v>
+        <v>1.044993417697184</v>
       </c>
       <c r="L6">
-        <v>1.03399765787809</v>
+        <v>1.041175480815897</v>
       </c>
       <c r="M6">
-        <v>1.04548362014139</v>
+        <v>1.052494393019916</v>
       </c>
       <c r="N6">
-        <v>1.015756308153449</v>
+        <v>1.017180917058248</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016062595149916</v>
+        <v>1.034953353489058</v>
       </c>
       <c r="D7">
-        <v>1.033208532547772</v>
+        <v>1.042377835249033</v>
       </c>
       <c r="E7">
-        <v>1.023374719829696</v>
+        <v>1.038510630860205</v>
       </c>
       <c r="F7">
-        <v>1.034917090809516</v>
+        <v>1.049840073723496</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051773515930526</v>
+        <v>1.039704906904188</v>
       </c>
       <c r="J7">
-        <v>1.035058211629798</v>
+        <v>1.039487943268972</v>
       </c>
       <c r="K7">
-        <v>1.042919150438906</v>
+        <v>1.044845090934719</v>
       </c>
       <c r="L7">
-        <v>1.033196076544246</v>
+        <v>1.040987573738826</v>
       </c>
       <c r="M7">
-        <v>1.044608732499386</v>
+        <v>1.052288853865173</v>
       </c>
       <c r="N7">
-        <v>1.015531837037779</v>
+        <v>1.01713030121052</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01090671824712</v>
+        <v>1.033849881775224</v>
       </c>
       <c r="D8">
-        <v>1.029280363578668</v>
+        <v>1.041508381102153</v>
       </c>
       <c r="E8">
-        <v>1.018850647235287</v>
+        <v>1.037475189492297</v>
       </c>
       <c r="F8">
-        <v>1.030095018489977</v>
+        <v>1.048733864155479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050092945298179</v>
+        <v>1.039421718620189</v>
       </c>
       <c r="J8">
-        <v>1.0322032019674</v>
+        <v>1.038853501692106</v>
       </c>
       <c r="K8">
-        <v>1.040077799005832</v>
+        <v>1.044224594310834</v>
       </c>
       <c r="L8">
-        <v>1.029781187962469</v>
+        <v>1.040202591178395</v>
       </c>
       <c r="M8">
-        <v>1.040882198767588</v>
+        <v>1.051430266176398</v>
       </c>
       <c r="N8">
-        <v>1.014573627574621</v>
+        <v>1.016918582560855</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001435773983249</v>
+        <v>1.031909643321652</v>
       </c>
       <c r="D9">
-        <v>1.022086628792092</v>
+        <v>1.039979692996363</v>
       </c>
       <c r="E9">
-        <v>1.010582694933921</v>
+        <v>1.035657403447846</v>
       </c>
       <c r="F9">
-        <v>1.021280325778716</v>
+        <v>1.046791664475473</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046928344939312</v>
+        <v>1.038914361571618</v>
       </c>
       <c r="J9">
-        <v>1.026937933047198</v>
+        <v>1.037734685721066</v>
       </c>
       <c r="K9">
-        <v>1.034831248529968</v>
+        <v>1.04312934292384</v>
       </c>
       <c r="L9">
-        <v>1.023506377339243</v>
+        <v>1.038821099224714</v>
       </c>
       <c r="M9">
-        <v>1.034037328108652</v>
+        <v>1.049919435715883</v>
       </c>
       <c r="N9">
-        <v>1.012805805191713</v>
+        <v>1.016544961335514</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9948375105624153</v>
+        <v>1.030619080615271</v>
       </c>
       <c r="D10">
-        <v>1.017092581696039</v>
+        <v>1.038962957038768</v>
       </c>
       <c r="E10">
-        <v>1.004853352461359</v>
+        <v>1.034450220555741</v>
       </c>
       <c r="F10">
-        <v>1.015170585072063</v>
+        <v>1.045501738128985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044673509094925</v>
+        <v>1.038570560931964</v>
       </c>
       <c r="J10">
-        <v>1.023257460789613</v>
+        <v>1.036988309979252</v>
       </c>
       <c r="K10">
-        <v>1.031159933103381</v>
+        <v>1.042398002612382</v>
       </c>
       <c r="L10">
-        <v>1.01913552757863</v>
+        <v>1.037901365463128</v>
       </c>
       <c r="M10">
-        <v>1.029271227742556</v>
+        <v>1.048913728114078</v>
       </c>
       <c r="N10">
-        <v>1.01156978072704</v>
+        <v>1.016295540141535</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9919069697685632</v>
+        <v>1.030060966967851</v>
       </c>
       <c r="D11">
-        <v>1.01487939978158</v>
+        <v>1.038523287547333</v>
       </c>
       <c r="E11">
-        <v>1.002316543896439</v>
+        <v>1.033928628234081</v>
       </c>
       <c r="F11">
-        <v>1.012464963574154</v>
+        <v>1.044944365148994</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043660696637894</v>
+        <v>1.038420381909431</v>
       </c>
       <c r="J11">
-        <v>1.021620347459137</v>
+        <v>1.036665018025183</v>
       </c>
       <c r="K11">
-        <v>1.029526063776179</v>
+        <v>1.042081061992501</v>
       </c>
       <c r="L11">
-        <v>1.017194905422715</v>
+        <v>1.037503427733365</v>
       </c>
       <c r="M11">
-        <v>1.02715557614809</v>
+        <v>1.048478624114106</v>
       </c>
       <c r="N11">
-        <v>1.011019946990574</v>
+        <v>1.016187462890646</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9908068559127564</v>
+        <v>1.029853766703696</v>
       </c>
       <c r="D12">
-        <v>1.014049369462903</v>
+        <v>1.038360064193133</v>
       </c>
       <c r="E12">
-        <v>1.001365454112094</v>
+        <v>1.033735056582497</v>
       </c>
       <c r="F12">
-        <v>1.011450524139815</v>
+        <v>1.044737510227136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043278831429541</v>
+        <v>1.038364402530334</v>
       </c>
       <c r="J12">
-        <v>1.021005447208658</v>
+        <v>1.036544918239391</v>
       </c>
       <c r="K12">
-        <v>1.028912266374916</v>
+        <v>1.041963297532064</v>
       </c>
       <c r="L12">
-        <v>1.016466540848692</v>
+        <v>1.037355664428431</v>
       </c>
       <c r="M12">
-        <v>1.026361589706717</v>
+        <v>1.048317064892465</v>
       </c>
       <c r="N12">
-        <v>1.01081342666027</v>
+        <v>1.016147307184682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9910433672441443</v>
+        <v>1.029898206951863</v>
       </c>
       <c r="D13">
-        <v>1.014227779403487</v>
+        <v>1.038395072079869</v>
       </c>
       <c r="E13">
-        <v>1.001569871243213</v>
+        <v>1.033776570593376</v>
       </c>
       <c r="F13">
-        <v>1.011668559663268</v>
+        <v>1.04478187321483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043361002101602</v>
+        <v>1.038376419163398</v>
       </c>
       <c r="J13">
-        <v>1.021137657892447</v>
+        <v>1.036570680699507</v>
       </c>
       <c r="K13">
-        <v>1.029044245009816</v>
+        <v>1.041988560134932</v>
       </c>
       <c r="L13">
-        <v>1.016623123624122</v>
+        <v>1.037387357941516</v>
       </c>
       <c r="M13">
-        <v>1.026532276526523</v>
+        <v>1.048351717253982</v>
       </c>
       <c r="N13">
-        <v>1.010857830996914</v>
+        <v>1.016155921210611</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9918162735265689</v>
+        <v>1.030043837517364</v>
       </c>
       <c r="D14">
-        <v>1.014810953521969</v>
+        <v>1.038509793618666</v>
       </c>
       <c r="E14">
-        <v>1.002238108543827</v>
+        <v>1.033912624042931</v>
       </c>
       <c r="F14">
-        <v>1.012381305053156</v>
+        <v>1.044927262810041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043629248142808</v>
+        <v>1.038415758634516</v>
       </c>
       <c r="J14">
-        <v>1.021569660057972</v>
+        <v>1.036655090833481</v>
       </c>
       <c r="K14">
-        <v>1.029475469582422</v>
+        <v>1.042071328325559</v>
       </c>
       <c r="L14">
-        <v>1.017134854113247</v>
+        <v>1.037491212574983</v>
       </c>
       <c r="M14">
-        <v>1.027090113068013</v>
+        <v>1.048465268390657</v>
       </c>
       <c r="N14">
-        <v>1.011002923161849</v>
+        <v>1.01618414382932</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9922909351787926</v>
+        <v>1.030133579671842</v>
       </c>
       <c r="D15">
-        <v>1.015169201748798</v>
+        <v>1.038580489253078</v>
       </c>
       <c r="E15">
-        <v>1.002648652405525</v>
+        <v>1.033996473771781</v>
       </c>
       <c r="F15">
-        <v>1.01281918544228</v>
+        <v>1.045016865810622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043793767453796</v>
+        <v>1.038439971005275</v>
       </c>
       <c r="J15">
-        <v>1.021834920777706</v>
+        <v>1.036707096783503</v>
       </c>
       <c r="K15">
-        <v>1.029740237863781</v>
+        <v>1.042122319462489</v>
       </c>
       <c r="L15">
-        <v>1.017449140404038</v>
+        <v>1.037555207310618</v>
       </c>
       <c r="M15">
-        <v>1.027432725473453</v>
+        <v>1.04853523869699</v>
       </c>
       <c r="N15">
-        <v>1.011092013319039</v>
+        <v>1.016201531271628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9950304075984033</v>
+        <v>1.03065613583967</v>
       </c>
       <c r="D16">
-        <v>1.017238366391651</v>
+        <v>1.038992148906058</v>
       </c>
       <c r="E16">
-        <v>1.005020499520594</v>
+        <v>1.034484860795456</v>
       </c>
       <c r="F16">
-        <v>1.015348846883195</v>
+        <v>1.045538754026915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044739942561441</v>
+        <v>1.038580500261987</v>
       </c>
       <c r="J16">
-        <v>1.023365172062523</v>
+        <v>1.037009763664979</v>
       </c>
       <c r="K16">
-        <v>1.031267414410413</v>
+        <v>1.042419031434</v>
       </c>
       <c r="L16">
-        <v>1.019263281989428</v>
+        <v>1.037927781999454</v>
       </c>
       <c r="M16">
-        <v>1.02941051438365</v>
+        <v>1.048942612549086</v>
       </c>
       <c r="N16">
-        <v>1.011605955642595</v>
+        <v>1.016302711305077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9967287670165389</v>
+        <v>1.030984112300457</v>
       </c>
       <c r="D17">
-        <v>1.018522487336431</v>
+        <v>1.039250529688915</v>
       </c>
       <c r="E17">
-        <v>1.006493039266845</v>
+        <v>1.034791515773369</v>
       </c>
       <c r="F17">
-        <v>1.016919262040736</v>
+        <v>1.04586643627071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045323566499878</v>
+        <v>1.038668300083326</v>
       </c>
       <c r="J17">
-        <v>1.024313236901661</v>
+        <v>1.037199590993364</v>
       </c>
       <c r="K17">
-        <v>1.032213361746955</v>
+        <v>1.042605080850542</v>
       </c>
       <c r="L17">
-        <v>1.020388171791725</v>
+        <v>1.038161573098599</v>
       </c>
       <c r="M17">
-        <v>1.030636999112413</v>
+        <v>1.049198248659679</v>
       </c>
       <c r="N17">
-        <v>1.011924360120767</v>
+        <v>1.016366158775982</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9977123431201181</v>
+        <v>1.03117548367918</v>
       </c>
       <c r="D18">
-        <v>1.019266622598652</v>
+        <v>1.039401295047643</v>
       </c>
       <c r="E18">
-        <v>1.007346575002996</v>
+        <v>1.034970490938972</v>
       </c>
       <c r="F18">
-        <v>1.017829493517716</v>
+        <v>1.046057680891864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045660480276842</v>
+        <v>1.038719385681964</v>
       </c>
       <c r="J18">
-        <v>1.024862054832189</v>
+        <v>1.037310303721303</v>
       </c>
       <c r="K18">
-        <v>1.032760874567366</v>
+        <v>1.042713574630889</v>
       </c>
       <c r="L18">
-        <v>1.021039690594025</v>
+        <v>1.038297969599491</v>
       </c>
       <c r="M18">
-        <v>1.031347403569098</v>
+        <v>1.049347392860096</v>
       </c>
       <c r="N18">
-        <v>1.012108675135225</v>
+        <v>1.016403159227293</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9980465376794764</v>
+        <v>1.03124074790457</v>
       </c>
       <c r="D19">
-        <v>1.019519537181894</v>
+        <v>1.03945271162142</v>
       </c>
       <c r="E19">
-        <v>1.007636709190173</v>
+        <v>1.035031535194397</v>
       </c>
       <c r="F19">
-        <v>1.018138893635633</v>
+        <v>1.046122909493661</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045774770227549</v>
+        <v>1.038736783062131</v>
       </c>
       <c r="J19">
-        <v>1.025048488002769</v>
+        <v>1.037348052109443</v>
       </c>
       <c r="K19">
-        <v>1.032946850674533</v>
+        <v>1.042750563808819</v>
       </c>
       <c r="L19">
-        <v>1.02126106899785</v>
+        <v>1.038344482344169</v>
       </c>
       <c r="M19">
-        <v>1.031588797930142</v>
+        <v>1.049398253233225</v>
       </c>
       <c r="N19">
-        <v>1.012171286138193</v>
+        <v>1.016415774158703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9965472819907859</v>
+        <v>1.030948916458728</v>
       </c>
       <c r="D20">
-        <v>1.018385219476578</v>
+        <v>1.039222802048534</v>
       </c>
       <c r="E20">
-        <v>1.006335608119508</v>
+        <v>1.034758603360085</v>
       </c>
       <c r="F20">
-        <v>1.016751370678874</v>
+        <v>1.045831267353702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045261312930374</v>
+        <v>1.038658893077697</v>
       </c>
       <c r="J20">
-        <v>1.024211952017734</v>
+        <v>1.037179225378386</v>
       </c>
       <c r="K20">
-        <v>1.032112311248955</v>
+        <v>1.042585122157606</v>
       </c>
       <c r="L20">
-        <v>1.020267960869899</v>
+        <v>1.038136486401521</v>
       </c>
       <c r="M20">
-        <v>1.030505926766658</v>
+        <v>1.049170817591099</v>
       </c>
       <c r="N20">
-        <v>1.011890344285984</v>
+        <v>1.016359352223437</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9915889961207452</v>
+        <v>1.030000949951952</v>
       </c>
       <c r="D21">
-        <v>1.01463944569217</v>
+        <v>1.038476008500975</v>
       </c>
       <c r="E21">
-        <v>1.002041575720042</v>
+        <v>1.03387255495915</v>
       </c>
       <c r="F21">
-        <v>1.012171683755766</v>
+        <v>1.044884444263042</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043550414196912</v>
+        <v>1.038404179550757</v>
       </c>
       <c r="J21">
-        <v>1.021442636299984</v>
+        <v>1.036630234550562</v>
       </c>
       <c r="K21">
-        <v>1.029348677572817</v>
+        <v>1.042046956211726</v>
       </c>
       <c r="L21">
-        <v>1.016984372777423</v>
+        <v>1.037460628623819</v>
       </c>
       <c r="M21">
-        <v>1.026926071641711</v>
+        <v>1.048431828803452</v>
       </c>
       <c r="N21">
-        <v>1.010960261035157</v>
+        <v>1.016175833271664</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9884042285464835</v>
+        <v>1.029405551375574</v>
       </c>
       <c r="D22">
-        <v>1.012238117722073</v>
+        <v>1.038006988274285</v>
       </c>
       <c r="E22">
-        <v>0.9992905832046911</v>
+        <v>1.033316451185944</v>
       </c>
       <c r="F22">
-        <v>1.009237341324537</v>
+        <v>1.044290171069428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042441848406638</v>
+        <v>1.038242896257252</v>
       </c>
       <c r="J22">
-        <v>1.019661945669656</v>
+        <v>1.036284977435884</v>
       </c>
       <c r="K22">
-        <v>1.027570972091029</v>
+        <v>1.041708367211929</v>
       </c>
       <c r="L22">
-        <v>1.01487610689234</v>
+        <v>1.037035971258617</v>
       </c>
       <c r="M22">
-        <v>1.024627999190502</v>
+        <v>1.047967532285625</v>
       </c>
       <c r="N22">
-        <v>1.010362196817588</v>
+        <v>1.016060384186074</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.990099104122472</v>
+        <v>1.029721123609939</v>
       </c>
       <c r="D23">
-        <v>1.013515604407501</v>
+        <v>1.038255575037869</v>
       </c>
       <c r="E23">
-        <v>1.000753925198888</v>
+        <v>1.033611157868889</v>
       </c>
       <c r="F23">
-        <v>1.010798246037802</v>
+        <v>1.044605108073499</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043032699126679</v>
+        <v>1.038328502889774</v>
       </c>
       <c r="J23">
-        <v>1.020609765428923</v>
+        <v>1.036468012396134</v>
       </c>
       <c r="K23">
-        <v>1.028517262838678</v>
+        <v>1.041887880331075</v>
       </c>
       <c r="L23">
-        <v>1.015997995883473</v>
+        <v>1.037261063018998</v>
       </c>
       <c r="M23">
-        <v>1.025850851600431</v>
+        <v>1.04821363236568</v>
       </c>
       <c r="N23">
-        <v>1.010680532651586</v>
+        <v>1.016121591793762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9966293090036655</v>
+        <v>1.03096481973389</v>
       </c>
       <c r="D24">
-        <v>1.018447259942057</v>
+        <v>1.039235330802212</v>
       </c>
       <c r="E24">
-        <v>1.006406761050443</v>
+        <v>1.034773474727916</v>
       </c>
       <c r="F24">
-        <v>1.016827251343896</v>
+        <v>1.045847158324207</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045289453454397</v>
+        <v>1.038663144089733</v>
       </c>
       <c r="J24">
-        <v>1.024257731170669</v>
+        <v>1.037188427755265</v>
       </c>
       <c r="K24">
-        <v>1.032157984709788</v>
+        <v>1.042594140711385</v>
       </c>
       <c r="L24">
-        <v>1.02032229323579</v>
+        <v>1.038147821907235</v>
       </c>
       <c r="M24">
-        <v>1.030565168093264</v>
+        <v>1.049183212399249</v>
       </c>
       <c r="N24">
-        <v>1.011905718912728</v>
+        <v>1.016362427834421</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003932427774376</v>
+        <v>1.032410731891767</v>
       </c>
       <c r="D25">
-        <v>1.023980133441732</v>
+        <v>1.040374481867992</v>
       </c>
       <c r="E25">
-        <v>1.01275706297333</v>
+        <v>1.036126528607396</v>
       </c>
       <c r="F25">
-        <v>1.023598738233223</v>
+        <v>1.047292918816677</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047771394627849</v>
+        <v>1.039046509411485</v>
       </c>
       <c r="J25">
-        <v>1.02832817092909</v>
+        <v>1.038024019611997</v>
       </c>
       <c r="K25">
-        <v>1.03621725408977</v>
+        <v>1.043412703913697</v>
       </c>
       <c r="L25">
-        <v>1.025160517944003</v>
+        <v>1.039178032057877</v>
       </c>
       <c r="M25">
-        <v>1.03584143546176</v>
+        <v>1.050309761829035</v>
       </c>
       <c r="N25">
-        <v>1.013272642658837</v>
+        <v>1.016641613322807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_189/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_189/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033566086006686</v>
+        <v>1.009554084498176</v>
       </c>
       <c r="D2">
-        <v>1.041284775085484</v>
+        <v>1.028251186334497</v>
       </c>
       <c r="E2">
-        <v>1.037209081715803</v>
+        <v>1.017666522025238</v>
       </c>
       <c r="F2">
-        <v>1.04844955719123</v>
+        <v>1.028832755925664</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039348246348588</v>
+        <v>1.049646799911078</v>
       </c>
       <c r="J2">
-        <v>1.03869011018239</v>
+        <v>1.031452741943503</v>
       </c>
       <c r="K2">
-        <v>1.044064724237527</v>
+        <v>1.039330482631114</v>
       </c>
       <c r="L2">
-        <v>1.040000619992905</v>
+        <v>1.028885100735675</v>
       </c>
       <c r="M2">
-        <v>1.051209370383304</v>
+        <v>1.039904503389713</v>
       </c>
       <c r="N2">
-        <v>1.016864039476882</v>
+        <v>1.014321705002129</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034406165869343</v>
+        <v>1.013526348837513</v>
       </c>
       <c r="D3">
-        <v>1.041946689113928</v>
+        <v>1.031275189606139</v>
       </c>
       <c r="E3">
-        <v>1.037997028747212</v>
+        <v>1.02114716168348</v>
       </c>
       <c r="F3">
-        <v>1.049291378171593</v>
+        <v>1.032542910477506</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039564980280528</v>
+        <v>1.050950914200924</v>
       </c>
       <c r="J3">
-        <v>1.039173511798313</v>
+        <v>1.033654942906064</v>
       </c>
       <c r="K3">
-        <v>1.044537625248489</v>
+        <v>1.04152294606376</v>
       </c>
       <c r="L3">
-        <v>1.040598385274516</v>
+        <v>1.031516425957758</v>
       </c>
       <c r="M3">
-        <v>1.05186316195899</v>
+        <v>1.042775665782876</v>
       </c>
       <c r="N3">
-        <v>1.017025386728734</v>
+        <v>1.015060907502441</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034950295680202</v>
+        <v>1.016048532799409</v>
       </c>
       <c r="D4">
-        <v>1.042375425894446</v>
+        <v>1.033197807642206</v>
       </c>
       <c r="E4">
-        <v>1.038507759910976</v>
+        <v>1.023362357594522</v>
       </c>
       <c r="F4">
-        <v>1.049837006658326</v>
+        <v>1.034903915447496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039704127733229</v>
+        <v>1.051768977778568</v>
       </c>
       <c r="J4">
-        <v>1.039486187120999</v>
+        <v>1.035050437647813</v>
       </c>
       <c r="K4">
-        <v>1.044843373994666</v>
+        <v>1.042911417572063</v>
       </c>
       <c r="L4">
-        <v>1.040985399239814</v>
+        <v>1.033186764811331</v>
       </c>
       <c r="M4">
-        <v>1.052286475353216</v>
+        <v>1.044598569539915</v>
       </c>
       <c r="N4">
-        <v>1.017129715324971</v>
+        <v>1.015529228371864</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03517917604336</v>
+        <v>1.017097694177752</v>
       </c>
       <c r="D5">
-        <v>1.042555769047492</v>
+        <v>1.033998132724611</v>
       </c>
       <c r="E5">
-        <v>1.038722679397158</v>
+        <v>1.024285031000945</v>
       </c>
       <c r="F5">
-        <v>1.050066605824337</v>
+        <v>1.035887259795397</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039762362655128</v>
+        <v>1.052106839857117</v>
       </c>
       <c r="J5">
-        <v>1.039617606398579</v>
+        <v>1.03563022961692</v>
       </c>
       <c r="K5">
-        <v>1.04497184968291</v>
+        <v>1.043488080175673</v>
       </c>
       <c r="L5">
-        <v>1.041148151102138</v>
+        <v>1.033881452045384</v>
       </c>
       <c r="M5">
-        <v>1.052464498539729</v>
+        <v>1.045356783316836</v>
       </c>
       <c r="N5">
-        <v>1.017173556935251</v>
+        <v>1.015723777603444</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035217613535415</v>
+        <v>1.017273208436523</v>
       </c>
       <c r="D6">
-        <v>1.04258605539994</v>
+        <v>1.034132051339052</v>
       </c>
       <c r="E6">
-        <v>1.038758777475903</v>
+        <v>1.02443945542688</v>
       </c>
       <c r="F6">
-        <v>1.050105169202333</v>
+        <v>1.03605183492113</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03977212512898</v>
+        <v>1.052163216927766</v>
       </c>
       <c r="J6">
-        <v>1.039639670512551</v>
+        <v>1.03572718130922</v>
       </c>
       <c r="K6">
-        <v>1.044993417697184</v>
+        <v>1.043584495957747</v>
       </c>
       <c r="L6">
-        <v>1.041175480815897</v>
+        <v>1.033997657878091</v>
       </c>
       <c r="M6">
-        <v>1.052494393019916</v>
+        <v>1.045483620141391</v>
       </c>
       <c r="N6">
-        <v>1.017180917058248</v>
+        <v>1.015756308153449</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034953353489058</v>
+        <v>1.016062595149916</v>
       </c>
       <c r="D7">
-        <v>1.042377835249033</v>
+        <v>1.033208532547772</v>
       </c>
       <c r="E7">
-        <v>1.038510630860205</v>
+        <v>1.023374719829696</v>
       </c>
       <c r="F7">
-        <v>1.049840073723496</v>
+        <v>1.034917090809516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039704906904188</v>
+        <v>1.051773515930526</v>
       </c>
       <c r="J7">
-        <v>1.039487943268972</v>
+        <v>1.035058211629797</v>
       </c>
       <c r="K7">
-        <v>1.044845090934719</v>
+        <v>1.042919150438906</v>
       </c>
       <c r="L7">
-        <v>1.040987573738826</v>
+        <v>1.033196076544246</v>
       </c>
       <c r="M7">
-        <v>1.052288853865173</v>
+        <v>1.044608732499386</v>
       </c>
       <c r="N7">
-        <v>1.01713030121052</v>
+        <v>1.015531837037778</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033849881775224</v>
+        <v>1.01090671824712</v>
       </c>
       <c r="D8">
-        <v>1.041508381102153</v>
+        <v>1.029280363578668</v>
       </c>
       <c r="E8">
-        <v>1.037475189492297</v>
+        <v>1.018850647235287</v>
       </c>
       <c r="F8">
-        <v>1.048733864155479</v>
+        <v>1.030095018489977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039421718620189</v>
+        <v>1.050092945298179</v>
       </c>
       <c r="J8">
-        <v>1.038853501692106</v>
+        <v>1.0322032019674</v>
       </c>
       <c r="K8">
-        <v>1.044224594310834</v>
+        <v>1.040077799005831</v>
       </c>
       <c r="L8">
-        <v>1.040202591178395</v>
+        <v>1.029781187962469</v>
       </c>
       <c r="M8">
-        <v>1.051430266176398</v>
+        <v>1.040882198767588</v>
       </c>
       <c r="N8">
-        <v>1.016918582560855</v>
+        <v>1.014573627574621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031909643321652</v>
+        <v>1.001435773983249</v>
       </c>
       <c r="D9">
-        <v>1.039979692996363</v>
+        <v>1.022086628792092</v>
       </c>
       <c r="E9">
-        <v>1.035657403447846</v>
+        <v>1.010582694933921</v>
       </c>
       <c r="F9">
-        <v>1.046791664475473</v>
+        <v>1.021280325778717</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038914361571618</v>
+        <v>1.046928344939313</v>
       </c>
       <c r="J9">
-        <v>1.037734685721066</v>
+        <v>1.026937933047198</v>
       </c>
       <c r="K9">
-        <v>1.04312934292384</v>
+        <v>1.034831248529968</v>
       </c>
       <c r="L9">
-        <v>1.038821099224714</v>
+        <v>1.023506377339243</v>
       </c>
       <c r="M9">
-        <v>1.049919435715883</v>
+        <v>1.034037328108652</v>
       </c>
       <c r="N9">
-        <v>1.016544961335514</v>
+        <v>1.012805805191713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030619080615271</v>
+        <v>0.9948375105624158</v>
       </c>
       <c r="D10">
-        <v>1.038962957038768</v>
+        <v>1.01709258169604</v>
       </c>
       <c r="E10">
-        <v>1.034450220555741</v>
+        <v>1.00485335246136</v>
       </c>
       <c r="F10">
-        <v>1.045501738128985</v>
+        <v>1.015170585072063</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038570560931964</v>
+        <v>1.044673509094926</v>
       </c>
       <c r="J10">
-        <v>1.036988309979252</v>
+        <v>1.023257460789613</v>
       </c>
       <c r="K10">
-        <v>1.042398002612382</v>
+        <v>1.031159933103381</v>
       </c>
       <c r="L10">
-        <v>1.037901365463128</v>
+        <v>1.01913552757863</v>
       </c>
       <c r="M10">
-        <v>1.048913728114078</v>
+        <v>1.029271227742557</v>
       </c>
       <c r="N10">
-        <v>1.016295540141535</v>
+        <v>1.01156978072704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030060966967851</v>
+        <v>0.991906969768563</v>
       </c>
       <c r="D11">
-        <v>1.038523287547333</v>
+        <v>1.014879399781579</v>
       </c>
       <c r="E11">
-        <v>1.033928628234081</v>
+        <v>1.002316543896439</v>
       </c>
       <c r="F11">
-        <v>1.044944365148994</v>
+        <v>1.012464963574153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038420381909431</v>
+        <v>1.043660696637894</v>
       </c>
       <c r="J11">
-        <v>1.036665018025183</v>
+        <v>1.021620347459137</v>
       </c>
       <c r="K11">
-        <v>1.042081061992501</v>
+        <v>1.029526063776179</v>
       </c>
       <c r="L11">
-        <v>1.037503427733365</v>
+        <v>1.017194905422714</v>
       </c>
       <c r="M11">
-        <v>1.048478624114106</v>
+        <v>1.02715557614809</v>
       </c>
       <c r="N11">
-        <v>1.016187462890646</v>
+        <v>1.011019946990574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029853766703696</v>
+        <v>0.9908068559127571</v>
       </c>
       <c r="D12">
-        <v>1.038360064193133</v>
+        <v>1.014049369462904</v>
       </c>
       <c r="E12">
-        <v>1.033735056582497</v>
+        <v>1.001365454112095</v>
       </c>
       <c r="F12">
-        <v>1.044737510227136</v>
+        <v>1.011450524139816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038364402530334</v>
+        <v>1.043278831429542</v>
       </c>
       <c r="J12">
-        <v>1.036544918239391</v>
+        <v>1.021005447208658</v>
       </c>
       <c r="K12">
-        <v>1.041963297532064</v>
+        <v>1.028912266374917</v>
       </c>
       <c r="L12">
-        <v>1.037355664428431</v>
+        <v>1.016466540848693</v>
       </c>
       <c r="M12">
-        <v>1.048317064892465</v>
+        <v>1.026361589706718</v>
       </c>
       <c r="N12">
-        <v>1.016147307184682</v>
+        <v>1.01081342666027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029898206951863</v>
+        <v>0.9910433672441437</v>
       </c>
       <c r="D13">
-        <v>1.038395072079869</v>
+        <v>1.014227779403486</v>
       </c>
       <c r="E13">
-        <v>1.033776570593376</v>
+        <v>1.001569871243212</v>
       </c>
       <c r="F13">
-        <v>1.04478187321483</v>
+        <v>1.011668559663267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038376419163398</v>
+        <v>1.043361002101602</v>
       </c>
       <c r="J13">
-        <v>1.036570680699507</v>
+        <v>1.021137657892446</v>
       </c>
       <c r="K13">
-        <v>1.041988560134932</v>
+        <v>1.029044245009815</v>
       </c>
       <c r="L13">
-        <v>1.037387357941516</v>
+        <v>1.016623123624122</v>
       </c>
       <c r="M13">
-        <v>1.048351717253982</v>
+        <v>1.026532276526522</v>
       </c>
       <c r="N13">
-        <v>1.016155921210611</v>
+        <v>1.010857830996914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030043837517364</v>
+        <v>0.9918162735265699</v>
       </c>
       <c r="D14">
-        <v>1.038509793618666</v>
+        <v>1.01481095352197</v>
       </c>
       <c r="E14">
-        <v>1.033912624042931</v>
+        <v>1.002238108543827</v>
       </c>
       <c r="F14">
-        <v>1.044927262810041</v>
+        <v>1.012381305053157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038415758634516</v>
+        <v>1.043629248142808</v>
       </c>
       <c r="J14">
-        <v>1.036655090833481</v>
+        <v>1.021569660057973</v>
       </c>
       <c r="K14">
-        <v>1.042071328325559</v>
+        <v>1.029475469582423</v>
       </c>
       <c r="L14">
-        <v>1.037491212574983</v>
+        <v>1.017134854113248</v>
       </c>
       <c r="M14">
-        <v>1.048465268390657</v>
+        <v>1.027090113068014</v>
       </c>
       <c r="N14">
-        <v>1.01618414382932</v>
+        <v>1.011002923161849</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030133579671842</v>
+        <v>0.9922909351787924</v>
       </c>
       <c r="D15">
-        <v>1.038580489253078</v>
+        <v>1.015169201748798</v>
       </c>
       <c r="E15">
-        <v>1.033996473771781</v>
+        <v>1.002648652405525</v>
       </c>
       <c r="F15">
-        <v>1.045016865810622</v>
+        <v>1.012819185442279</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038439971005275</v>
+        <v>1.043793767453796</v>
       </c>
       <c r="J15">
-        <v>1.036707096783503</v>
+        <v>1.021834920777705</v>
       </c>
       <c r="K15">
-        <v>1.042122319462489</v>
+        <v>1.029740237863781</v>
       </c>
       <c r="L15">
-        <v>1.037555207310618</v>
+        <v>1.017449140404038</v>
       </c>
       <c r="M15">
-        <v>1.04853523869699</v>
+        <v>1.027432725473453</v>
       </c>
       <c r="N15">
-        <v>1.016201531271628</v>
+        <v>1.011092013319039</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03065613583967</v>
+        <v>0.9950304075984041</v>
       </c>
       <c r="D16">
-        <v>1.038992148906058</v>
+        <v>1.017238366391652</v>
       </c>
       <c r="E16">
-        <v>1.034484860795456</v>
+        <v>1.005020499520595</v>
       </c>
       <c r="F16">
-        <v>1.045538754026915</v>
+        <v>1.015348846883196</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038580500261987</v>
+        <v>1.044739942561442</v>
       </c>
       <c r="J16">
-        <v>1.037009763664979</v>
+        <v>1.023365172062523</v>
       </c>
       <c r="K16">
-        <v>1.042419031434</v>
+        <v>1.031267414410414</v>
       </c>
       <c r="L16">
-        <v>1.037927781999454</v>
+        <v>1.019263281989428</v>
       </c>
       <c r="M16">
-        <v>1.048942612549086</v>
+        <v>1.029410514383651</v>
       </c>
       <c r="N16">
-        <v>1.016302711305077</v>
+        <v>1.011605955642596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.030984112300457</v>
+        <v>0.9967287670165382</v>
       </c>
       <c r="D17">
-        <v>1.039250529688915</v>
+        <v>1.01852248733643</v>
       </c>
       <c r="E17">
-        <v>1.034791515773369</v>
+        <v>1.006493039266844</v>
       </c>
       <c r="F17">
-        <v>1.04586643627071</v>
+        <v>1.016919262040735</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038668300083326</v>
+        <v>1.045323566499877</v>
       </c>
       <c r="J17">
-        <v>1.037199590993364</v>
+        <v>1.024313236901661</v>
       </c>
       <c r="K17">
-        <v>1.042605080850542</v>
+        <v>1.032213361746954</v>
       </c>
       <c r="L17">
-        <v>1.038161573098599</v>
+        <v>1.020388171791724</v>
       </c>
       <c r="M17">
-        <v>1.049198248659679</v>
+        <v>1.030636999112413</v>
       </c>
       <c r="N17">
-        <v>1.016366158775982</v>
+        <v>1.011924360120766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03117548367918</v>
+        <v>0.9977123431201181</v>
       </c>
       <c r="D18">
-        <v>1.039401295047643</v>
+        <v>1.019266622598652</v>
       </c>
       <c r="E18">
-        <v>1.034970490938972</v>
+        <v>1.007346575002996</v>
       </c>
       <c r="F18">
-        <v>1.046057680891864</v>
+        <v>1.017829493517716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038719385681964</v>
+        <v>1.045660480276842</v>
       </c>
       <c r="J18">
-        <v>1.037310303721303</v>
+        <v>1.024862054832189</v>
       </c>
       <c r="K18">
-        <v>1.042713574630889</v>
+        <v>1.032760874567366</v>
       </c>
       <c r="L18">
-        <v>1.038297969599491</v>
+        <v>1.021039690594025</v>
       </c>
       <c r="M18">
-        <v>1.049347392860096</v>
+        <v>1.031347403569098</v>
       </c>
       <c r="N18">
-        <v>1.016403159227293</v>
+        <v>1.012108675135225</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03124074790457</v>
+        <v>0.9980465376794759</v>
       </c>
       <c r="D19">
-        <v>1.03945271162142</v>
+        <v>1.019519537181894</v>
       </c>
       <c r="E19">
-        <v>1.035031535194397</v>
+        <v>1.007636709190173</v>
       </c>
       <c r="F19">
-        <v>1.046122909493661</v>
+        <v>1.018138893635633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038736783062131</v>
+        <v>1.045774770227549</v>
       </c>
       <c r="J19">
-        <v>1.037348052109443</v>
+        <v>1.025048488002769</v>
       </c>
       <c r="K19">
-        <v>1.042750563808819</v>
+        <v>1.032946850674533</v>
       </c>
       <c r="L19">
-        <v>1.038344482344169</v>
+        <v>1.021261068997849</v>
       </c>
       <c r="M19">
-        <v>1.049398253233225</v>
+        <v>1.031588797930142</v>
       </c>
       <c r="N19">
-        <v>1.016415774158703</v>
+        <v>1.012171286138193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030948916458728</v>
+        <v>0.9965472819907855</v>
       </c>
       <c r="D20">
-        <v>1.039222802048534</v>
+        <v>1.018385219476578</v>
       </c>
       <c r="E20">
-        <v>1.034758603360085</v>
+        <v>1.006335608119507</v>
       </c>
       <c r="F20">
-        <v>1.045831267353702</v>
+        <v>1.016751370678874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038658893077697</v>
+        <v>1.045261312930375</v>
       </c>
       <c r="J20">
-        <v>1.037179225378386</v>
+        <v>1.024211952017733</v>
       </c>
       <c r="K20">
-        <v>1.042585122157606</v>
+        <v>1.032112311248955</v>
       </c>
       <c r="L20">
-        <v>1.038136486401521</v>
+        <v>1.020267960869899</v>
       </c>
       <c r="M20">
-        <v>1.049170817591099</v>
+        <v>1.030505926766658</v>
       </c>
       <c r="N20">
-        <v>1.016359352223437</v>
+        <v>1.011890344285984</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030000949951952</v>
+        <v>0.991588996120746</v>
       </c>
       <c r="D21">
-        <v>1.038476008500975</v>
+        <v>1.014639445692171</v>
       </c>
       <c r="E21">
-        <v>1.03387255495915</v>
+        <v>1.002041575720042</v>
       </c>
       <c r="F21">
-        <v>1.044884444263042</v>
+        <v>1.012171683755767</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038404179550757</v>
+        <v>1.043550414196912</v>
       </c>
       <c r="J21">
-        <v>1.036630234550562</v>
+        <v>1.021442636299984</v>
       </c>
       <c r="K21">
-        <v>1.042046956211726</v>
+        <v>1.029348677572818</v>
       </c>
       <c r="L21">
-        <v>1.037460628623819</v>
+        <v>1.016984372777423</v>
       </c>
       <c r="M21">
-        <v>1.048431828803452</v>
+        <v>1.026926071641712</v>
       </c>
       <c r="N21">
-        <v>1.016175833271664</v>
+        <v>1.010960261035158</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029405551375574</v>
+        <v>0.9884042285464835</v>
       </c>
       <c r="D22">
-        <v>1.038006988274285</v>
+        <v>1.012238117722072</v>
       </c>
       <c r="E22">
-        <v>1.033316451185944</v>
+        <v>0.9992905832046912</v>
       </c>
       <c r="F22">
-        <v>1.044290171069428</v>
+        <v>1.009237341324537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038242896257252</v>
+        <v>1.042441848406638</v>
       </c>
       <c r="J22">
-        <v>1.036284977435884</v>
+        <v>1.019661945669655</v>
       </c>
       <c r="K22">
-        <v>1.041708367211929</v>
+        <v>1.027570972091028</v>
       </c>
       <c r="L22">
-        <v>1.037035971258617</v>
+        <v>1.01487610689234</v>
       </c>
       <c r="M22">
-        <v>1.047967532285625</v>
+        <v>1.024627999190502</v>
       </c>
       <c r="N22">
-        <v>1.016060384186074</v>
+        <v>1.010362196817588</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029721123609939</v>
+        <v>0.9900991041224718</v>
       </c>
       <c r="D23">
-        <v>1.038255575037869</v>
+        <v>1.013515604407501</v>
       </c>
       <c r="E23">
-        <v>1.033611157868889</v>
+        <v>1.000753925198887</v>
       </c>
       <c r="F23">
-        <v>1.044605108073499</v>
+        <v>1.010798246037801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038328502889774</v>
+        <v>1.043032699126679</v>
       </c>
       <c r="J23">
-        <v>1.036468012396134</v>
+        <v>1.020609765428922</v>
       </c>
       <c r="K23">
-        <v>1.041887880331075</v>
+        <v>1.028517262838678</v>
       </c>
       <c r="L23">
-        <v>1.037261063018998</v>
+        <v>1.015997995883473</v>
       </c>
       <c r="M23">
-        <v>1.04821363236568</v>
+        <v>1.02585085160043</v>
       </c>
       <c r="N23">
-        <v>1.016121591793762</v>
+        <v>1.010680532651586</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03096481973389</v>
+        <v>0.9966293090036655</v>
       </c>
       <c r="D24">
-        <v>1.039235330802212</v>
+        <v>1.018447259942058</v>
       </c>
       <c r="E24">
-        <v>1.034773474727916</v>
+        <v>1.006406761050443</v>
       </c>
       <c r="F24">
-        <v>1.045847158324207</v>
+        <v>1.016827251343897</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038663144089733</v>
+        <v>1.045289453454398</v>
       </c>
       <c r="J24">
-        <v>1.037188427755265</v>
+        <v>1.024257731170669</v>
       </c>
       <c r="K24">
-        <v>1.042594140711385</v>
+        <v>1.032157984709788</v>
       </c>
       <c r="L24">
-        <v>1.038147821907235</v>
+        <v>1.02032229323579</v>
       </c>
       <c r="M24">
-        <v>1.049183212399249</v>
+        <v>1.030565168093265</v>
       </c>
       <c r="N24">
-        <v>1.016362427834421</v>
+        <v>1.011905718912728</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032410731891767</v>
+        <v>1.003932427774375</v>
       </c>
       <c r="D25">
-        <v>1.040374481867992</v>
+        <v>1.023980133441731</v>
       </c>
       <c r="E25">
-        <v>1.036126528607396</v>
+        <v>1.01275706297333</v>
       </c>
       <c r="F25">
-        <v>1.047292918816677</v>
+        <v>1.023598738233223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039046509411485</v>
+        <v>1.047771394627849</v>
       </c>
       <c r="J25">
-        <v>1.038024019611997</v>
+        <v>1.02832817092909</v>
       </c>
       <c r="K25">
-        <v>1.043412703913697</v>
+        <v>1.03621725408977</v>
       </c>
       <c r="L25">
-        <v>1.039178032057877</v>
+        <v>1.025160517944002</v>
       </c>
       <c r="M25">
-        <v>1.050309761829035</v>
+        <v>1.03584143546176</v>
       </c>
       <c r="N25">
-        <v>1.016641613322807</v>
+        <v>1.013272642658836</v>
       </c>
     </row>
   </sheetData>
